--- a/Code/Results/Cases/Case_0_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5299524155105075</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.248522652555323</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.2399874079713129</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>16.96898100497748</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005731348612848962</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,125 +451,1097 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2237290542828632</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>7.66312166460591</v>
+      </c>
+      <c r="O2">
+        <v>15.40824173353431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.4346169351517517</v>
+      </c>
+      <c r="D3">
+        <v>0.9966075279489814</v>
+      </c>
+      <c r="E3">
+        <v>0.1958093820793678</v>
+      </c>
+      <c r="F3">
+        <v>13.5902090136118</v>
+      </c>
+      <c r="G3">
+        <v>0.000624154045184775</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.1817051180144631</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="O3">
+        <v>12.3366847069519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.3869195410632642</v>
+      </c>
+      <c r="D4">
+        <v>0.8702795280818805</v>
+      </c>
+      <c r="E4">
+        <v>0.1737252909490934</v>
+      </c>
+      <c r="F4">
+        <v>11.87601414572492</v>
+      </c>
+      <c r="G4">
+        <v>0.000652104415807068</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.160715663210425</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>6.187481969422947</v>
+      </c>
+      <c r="O4">
+        <v>10.77996502723198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.3691788738466641</v>
+      </c>
+      <c r="D5">
+        <v>0.8231799215559477</v>
+      </c>
+      <c r="E5">
+        <v>0.1655127149955327</v>
+      </c>
+      <c r="F5">
+        <v>11.23351020681463</v>
+      </c>
+      <c r="G5">
+        <v>0.0006630253298864224</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.1529117063075276</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5.958052239810513</v>
+      </c>
+      <c r="O5">
+        <v>10.19675832551187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.3663166163705114</v>
+      </c>
+      <c r="D6">
+        <v>0.8155733919427632</v>
+      </c>
+      <c r="E6">
+        <v>0.164187732831806</v>
+      </c>
+      <c r="F6">
+        <v>11.12957228891946</v>
+      </c>
+      <c r="G6">
+        <v>0.0006648173837512252</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.1516526874301505</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5.919936152110552</v>
+      </c>
+      <c r="O6">
+        <v>10.10242693024264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.3866743206273213</v>
+      </c>
+      <c r="D7">
+        <v>0.8696289989224226</v>
+      </c>
+      <c r="E7">
+        <v>0.1736117696607131</v>
+      </c>
+      <c r="F7">
+        <v>11.86715263596227</v>
+      </c>
+      <c r="G7">
+        <v>0.0006522532642154411</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.1606077864624211</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="O7">
+        <v>10.77192034126273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D8">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E8">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F8">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G8">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O8">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D9">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E9">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F9">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G9">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O9">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D10">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E10">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F10">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G10">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O10">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D11">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E11">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F11">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G11">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O11">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D12">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E12">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F12">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G12">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O12">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D13">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E13">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F13">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G13">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O13">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D14">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E14">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F14">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G14">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O14">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D15">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E15">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F15">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G15">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O15">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D16">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E16">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F16">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G16">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O16">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D17">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E17">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F17">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G17">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O17">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D18">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E18">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F18">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G18">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O18">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D19">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E19">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F19">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G19">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O19">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D20">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E20">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F20">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G20">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O20">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D21">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E21">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F21">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G21">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O21">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D22">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E22">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F22">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G22">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O22">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D23">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E23">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F23">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G23">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O23">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D24">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E24">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F24">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G24">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O24">
+        <v>14.25311272478947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.493928257889479</v>
+      </c>
+      <c r="D25">
+        <v>1.153359774555383</v>
+      </c>
+      <c r="E25">
+        <v>0.2232862879339592</v>
+      </c>
+      <c r="F25">
+        <v>15.69887401739777</v>
+      </c>
+      <c r="G25">
+        <v>0.0005917598916668749</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.2078351043299236</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O25">
+        <v>14.25311272478947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1034863704390432</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.3658991310361444</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.4281958523012435</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5.205430898608313</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002354317838867029</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.102759795275688</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.09155301181868936</v>
+      </c>
+      <c r="D3">
+        <v>0.3243481859844906</v>
+      </c>
+      <c r="E3">
+        <v>0.3710639949850361</v>
+      </c>
+      <c r="F3">
+        <v>4.680798169126945</v>
+      </c>
+      <c r="G3">
+        <v>0.002372329546672576</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>3.686649795405572</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2.562605684679454</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.08434101409228845</v>
+      </c>
+      <c r="D4">
+        <v>0.2992455695481908</v>
+      </c>
+      <c r="E4">
+        <v>0.3364244693129166</v>
+      </c>
+      <c r="F4">
+        <v>4.36451883143252</v>
+      </c>
+      <c r="G4">
+        <v>0.002383856005352053</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3.435768484871119</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2.371325805375761</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.08142859415653447</v>
+      </c>
+      <c r="D5">
+        <v>0.2891106619136679</v>
+      </c>
+      <c r="E5">
+        <v>0.3224065911000338</v>
+      </c>
+      <c r="F5">
+        <v>4.236999765924622</v>
+      </c>
+      <c r="G5">
+        <v>0.002388671967942969</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3.334610156171323</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2.293303068605894</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.08094652249108947</v>
+      </c>
+      <c r="D6">
+        <v>0.2874332430100139</v>
+      </c>
+      <c r="E6">
+        <v>0.3200844967831387</v>
+      </c>
+      <c r="F6">
+        <v>4.215904982482186</v>
+      </c>
+      <c r="G6">
+        <v>0.002389478871263335</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3.317875668782108</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2.280343261403857</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.08430163189254358</v>
+      </c>
+      <c r="D7">
+        <v>0.2991085144382168</v>
+      </c>
+      <c r="E7">
+        <v>0.3362350386323243</v>
+      </c>
+      <c r="F7">
+        <v>4.362793661205217</v>
+      </c>
+      <c r="G7">
+        <v>0.002383920472378908</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3.434399969631897</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2.370273851392596</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.09934635633737798</v>
+      </c>
+      <c r="D8">
+        <v>0.3514820914756172</v>
+      </c>
+      <c r="E8">
+        <v>0.4083977867818902</v>
+      </c>
+      <c r="F8">
+        <v>5.023260325220519</v>
+      </c>
+      <c r="G8">
+        <v>0.002360432140251953</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>3.958277320575547</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2.766433886209825</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.1298787264754537</v>
+      </c>
+      <c r="D9">
+        <v>0.4578431638128109</v>
+      </c>
+      <c r="E9">
+        <v>0.5539985699651169</v>
+      </c>
+      <c r="F9">
+        <v>6.369770568707338</v>
+      </c>
+      <c r="G9">
+        <v>0.00231801471891702</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>5.02611941635945</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3.540180268007646</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.1531107607707156</v>
+      </c>
+      <c r="D10">
+        <v>0.5388157052724978</v>
+      </c>
+      <c r="E10">
+        <v>0.6643557795504051</v>
+      </c>
+      <c r="F10">
+        <v>7.397672893380104</v>
+      </c>
+      <c r="G10">
+        <v>0.002288978743569049</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>5.841185604972736</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>4.10623028343673</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.163894043454178</v>
+      </c>
+      <c r="D11">
+        <v>0.5764084541453371</v>
+      </c>
+      <c r="E11">
+        <v>0.7155062906529821</v>
+      </c>
+      <c r="F11">
+        <v>7.875410429778924</v>
+      </c>
+      <c r="G11">
+        <v>0.002276210254570169</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>6.219984273189482</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4.363110593465422</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.1680118871579452</v>
+      </c>
+      <c r="D12">
+        <v>0.5907653499274943</v>
+      </c>
+      <c r="E12">
+        <v>0.7350307456245702</v>
+      </c>
+      <c r="F12">
+        <v>8.057927640822243</v>
+      </c>
+      <c r="G12">
+        <v>0.002271436621381003</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>6.364699972045401</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>4.460285735713398</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.1671234447274799</v>
+      </c>
+      <c r="D13">
+        <v>0.5876677334704254</v>
+      </c>
+      <c r="E13">
+        <v>0.7308186091906776</v>
+      </c>
+      <c r="F13">
+        <v>8.018545259869143</v>
+      </c>
+      <c r="G13">
+        <v>0.002272462001918532</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>6.333474258300498</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4.439361943450422</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.1642321093796966</v>
+      </c>
+      <c r="D14">
+        <v>0.5775870991193415</v>
+      </c>
+      <c r="E14">
+        <v>0.7171093651453475</v>
+      </c>
+      <c r="F14">
+        <v>7.890393099629932</v>
+      </c>
+      <c r="G14">
+        <v>0.002275816302894991</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>6.231863898047663</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>4.371107314139238</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.1624656784743195</v>
+      </c>
+      <c r="D15">
+        <v>0.5714286018861117</v>
+      </c>
+      <c r="E15">
+        <v>0.7087327957391096</v>
+      </c>
+      <c r="F15">
+        <v>7.812110290811347</v>
+      </c>
+      <c r="G15">
+        <v>0.00227787886599674</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>6.169794064144241</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>4.329286057409945</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.1524106701101005</v>
+      </c>
+      <c r="D16">
+        <v>0.5363752191302069</v>
+      </c>
+      <c r="E16">
+        <v>0.6610336097458429</v>
+      </c>
+      <c r="F16">
+        <v>7.366668280694739</v>
+      </c>
+      <c r="G16">
+        <v>0.002289821901045271</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>5.816601656299383</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>4.089429168003846</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.1462997409242064</v>
+      </c>
+      <c r="D17">
+        <v>0.5150737585721004</v>
+      </c>
+      <c r="E17">
+        <v>0.6320273822290119</v>
+      </c>
+      <c r="F17">
+        <v>7.096104893960273</v>
+      </c>
+      <c r="G17">
+        <v>0.002297260059378819</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>5.60206645841987</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>3.94211849063862</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.1428048990167667</v>
+      </c>
+      <c r="D18">
+        <v>0.5028922756415568</v>
+      </c>
+      <c r="E18">
+        <v>0.6154318622555621</v>
+      </c>
+      <c r="F18">
+        <v>6.941428809509716</v>
+      </c>
+      <c r="G18">
+        <v>0.002301579828734438</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5.47941885351355</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3.857331695637072</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.1416249369401896</v>
+      </c>
+      <c r="D19">
+        <v>0.4987795895525267</v>
+      </c>
+      <c r="E19">
+        <v>0.6098274921029514</v>
+      </c>
+      <c r="F19">
+        <v>6.889215998784948</v>
+      </c>
+      <c r="G19">
+        <v>0.0023030496151929</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>5.438017330193475</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3.828614786363971</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.146948164617811</v>
+      </c>
+      <c r="D20">
+        <v>0.5173339465326876</v>
+      </c>
+      <c r="E20">
+        <v>0.6351058973379793</v>
+      </c>
+      <c r="F20">
+        <v>7.124807985797247</v>
+      </c>
+      <c r="G20">
+        <v>0.002296463968191911</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>5.62482590655685</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>3.95780600327754</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.1650804002986206</v>
+      </c>
+      <c r="D21">
+        <v>0.5805446301712323</v>
+      </c>
+      <c r="E21">
+        <v>0.7211317457677353</v>
+      </c>
+      <c r="F21">
+        <v>7.927989596947725</v>
+      </c>
+      <c r="G21">
+        <v>0.002274829408397662</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>6.261673787066456</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>4.391158149571083</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.1771334774471427</v>
+      </c>
+      <c r="D22">
+        <v>0.6225700557581604</v>
+      </c>
+      <c r="E22">
+        <v>0.7782668076492172</v>
+      </c>
+      <c r="F22">
+        <v>8.462367157150538</v>
+      </c>
+      <c r="G22">
+        <v>0.002261047643969675</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>6.685371205210913</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>4.67379181795809</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.1706807498217415</v>
+      </c>
+      <c r="D23">
+        <v>0.6000707013147348</v>
+      </c>
+      <c r="E23">
+        <v>0.7476828385813405</v>
+      </c>
+      <c r="F23">
+        <v>8.176242621745814</v>
+      </c>
+      <c r="G23">
+        <v>0.00226837111425198</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>6.458509868908436</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>4.523002190001307</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.1466549551792866</v>
+      </c>
+      <c r="D24">
+        <v>0.5163119139862715</v>
+      </c>
+      <c r="E24">
+        <v>0.6337138511544254</v>
+      </c>
+      <c r="F24">
+        <v>7.111828605630592</v>
+      </c>
+      <c r="G24">
+        <v>0.002296823745555831</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>5.614534215005619</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>3.950713976768498</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.1214915166508206</v>
+      </c>
+      <c r="D25">
+        <v>0.4286184247066842</v>
+      </c>
+      <c r="E25">
+        <v>0.5140831396650469</v>
+      </c>
+      <c r="F25">
+        <v>5.999277660520249</v>
+      </c>
+      <c r="G25">
+        <v>0.002329109085205855</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4.732321633823119</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>3.331249627311138</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,31 +430,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.3183626537725956</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.01288900529991288</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.2045602703770193</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.125367544246288</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.091089275150949</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.007482153688631643</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0182263448599076</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6337099497305587</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.044501376700566</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,125 +463,1235 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2619161011958511</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>7.663121664604034</v>
+      </c>
+      <c r="Q2">
+        <v>3.590303215626705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.2942741269802411</v>
+      </c>
+      <c r="D3">
+        <v>0.01187745907869875</v>
+      </c>
+      <c r="E3">
+        <v>0.1855697559166281</v>
+      </c>
+      <c r="F3">
+        <v>1.000058898565129</v>
+      </c>
+      <c r="G3">
+        <v>0.9651148042441662</v>
+      </c>
+      <c r="H3">
+        <v>0.005001832812527085</v>
+      </c>
+      <c r="I3">
+        <v>0.01381878356161481</v>
+      </c>
+      <c r="J3">
+        <v>0.5763689446032316</v>
+      </c>
+      <c r="K3">
+        <v>0.9374871727510055</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.23477650035273</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="Q3">
+        <v>3.202938143828106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.2791973669829702</v>
+      </c>
+      <c r="D4">
+        <v>0.01125247681084574</v>
+      </c>
+      <c r="E4">
+        <v>0.1738298841185291</v>
+      </c>
+      <c r="F4">
+        <v>0.9233866052597222</v>
+      </c>
+      <c r="G4">
+        <v>0.8878946360722608</v>
+      </c>
+      <c r="H4">
+        <v>0.003680680912360401</v>
+      </c>
+      <c r="I4">
+        <v>0.01135473323123959</v>
+      </c>
+      <c r="J4">
+        <v>0.5412914592922391</v>
+      </c>
+      <c r="K4">
+        <v>0.8717035441413543</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.218129355873188</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>6.187481969423061</v>
+      </c>
+      <c r="Q4">
+        <v>2.965628735532931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2724388596571146</v>
+      </c>
+      <c r="D5">
+        <v>0.01100754109839031</v>
+      </c>
+      <c r="E5">
+        <v>0.1688865580219421</v>
+      </c>
+      <c r="F5">
+        <v>0.8914643847191712</v>
+      </c>
+      <c r="G5">
+        <v>0.8556016294817255</v>
+      </c>
+      <c r="H5">
+        <v>0.003185726830488234</v>
+      </c>
+      <c r="I5">
+        <v>0.01044780513337651</v>
+      </c>
+      <c r="J5">
+        <v>0.5266032494919699</v>
+      </c>
+      <c r="K5">
+        <v>0.8438523573125707</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.2114130240487171</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5.958052239810286</v>
+      </c>
+      <c r="Q5">
+        <v>2.866346565555034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.2706511173395398</v>
+      </c>
+      <c r="D6">
+        <v>0.01098023591155162</v>
+      </c>
+      <c r="E6">
+        <v>0.1678958895927813</v>
+      </c>
+      <c r="F6">
+        <v>0.885270219833231</v>
+      </c>
+      <c r="G6">
+        <v>0.8492051223435766</v>
+      </c>
+      <c r="H6">
+        <v>0.003101631445945441</v>
+      </c>
+      <c r="I6">
+        <v>0.01035797973438779</v>
+      </c>
+      <c r="J6">
+        <v>0.5236501806774214</v>
+      </c>
+      <c r="K6">
+        <v>0.8379813108833787</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.2103789679137975</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>5.919936152110608</v>
+      </c>
+      <c r="Q6">
+        <v>2.846591677046604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.2772946796460047</v>
+      </c>
+      <c r="D7">
+        <v>0.0112860478452248</v>
+      </c>
+      <c r="E7">
+        <v>0.1733020802463372</v>
+      </c>
+      <c r="F7">
+        <v>0.9204997524710024</v>
+      </c>
+      <c r="G7">
+        <v>0.8846223757322775</v>
+      </c>
+      <c r="H7">
+        <v>0.00365994697170946</v>
+      </c>
+      <c r="I7">
+        <v>0.01148332119467632</v>
+      </c>
+      <c r="J7">
+        <v>0.5396813900051853</v>
+      </c>
+      <c r="K7">
+        <v>0.867918570170545</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.2182613402419307</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="Q7">
+        <v>2.955319849603228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.3076988310178166</v>
+      </c>
+      <c r="D8">
+        <v>0.01259076287192684</v>
+      </c>
+      <c r="E8">
+        <v>0.1974133489568182</v>
+      </c>
+      <c r="F8">
+        <v>1.078815446284025</v>
+      </c>
+      <c r="G8">
+        <v>1.043827452016899</v>
+      </c>
+      <c r="H8">
+        <v>0.006559398196045341</v>
+      </c>
+      <c r="I8">
+        <v>0.01680793017375759</v>
+      </c>
+      <c r="J8">
+        <v>0.6120252402154875</v>
+      </c>
+      <c r="K8">
+        <v>1.003061837725269</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.2528513455951753</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>7.348453399592813</v>
+      </c>
+      <c r="Q8">
+        <v>3.444625473562894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.3683839731748435</v>
+      </c>
+      <c r="D9">
+        <v>0.01505911269755345</v>
+      </c>
+      <c r="E9">
+        <v>0.244968058238257</v>
+      </c>
+      <c r="F9">
+        <v>1.3964515441956</v>
+      </c>
+      <c r="G9">
+        <v>1.362753526315629</v>
+      </c>
+      <c r="H9">
+        <v>0.01404489094575767</v>
+      </c>
+      <c r="I9">
+        <v>0.02920905939321639</v>
+      </c>
+      <c r="J9">
+        <v>0.7577301696953214</v>
+      </c>
+      <c r="K9">
+        <v>1.273999237668022</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.3205488747439205</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>9.620230281550789</v>
+      </c>
+      <c r="Q9">
+        <v>4.426360819246327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.4041383091524722</v>
+      </c>
+      <c r="D10">
+        <v>0.01710108573822389</v>
+      </c>
+      <c r="E10">
+        <v>0.27042560514775</v>
+      </c>
+      <c r="F10">
+        <v>1.618587444140104</v>
+      </c>
+      <c r="G10">
+        <v>1.58293423328692</v>
+      </c>
+      <c r="H10">
+        <v>0.02059724990717537</v>
+      </c>
+      <c r="I10">
+        <v>0.03970343938652565</v>
+      </c>
+      <c r="J10">
+        <v>0.8580965859141259</v>
+      </c>
+      <c r="K10">
+        <v>1.456045802703983</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.3548741243476741</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.28258838837513</v>
+      </c>
+      <c r="Q10">
+        <v>5.103637097744354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.3624432547605778</v>
+      </c>
+      <c r="D11">
+        <v>0.0203055996794177</v>
+      </c>
+      <c r="E11">
+        <v>0.2099006980049296</v>
+      </c>
+      <c r="F11">
+        <v>1.606942388332598</v>
+      </c>
+      <c r="G11">
+        <v>1.553108415348163</v>
+      </c>
+      <c r="H11">
+        <v>0.03896848336980696</v>
+      </c>
+      <c r="I11">
+        <v>0.04244426896787168</v>
+      </c>
+      <c r="J11">
+        <v>0.8397236089594173</v>
+      </c>
+      <c r="K11">
+        <v>1.398149787708292</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.247740835801217</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.03742316731751</v>
+      </c>
+      <c r="Q11">
+        <v>5.002125722401786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.3260926387365259</v>
+      </c>
+      <c r="D12">
+        <v>0.02297525288453883</v>
+      </c>
+      <c r="E12">
+        <v>0.1633048264525065</v>
+      </c>
+      <c r="F12">
+        <v>1.55327417164726</v>
+      </c>
+      <c r="G12">
+        <v>1.485710124410446</v>
+      </c>
+      <c r="H12">
+        <v>0.07675228800790279</v>
+      </c>
+      <c r="I12">
+        <v>0.04236215009883981</v>
+      </c>
+      <c r="J12">
+        <v>0.8049443712884283</v>
+      </c>
+      <c r="K12">
+        <v>1.316935755808686</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.1699087262189423</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.32306348037548</v>
+      </c>
+      <c r="Q12">
+        <v>4.786515648945851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.2890990624626824</v>
+      </c>
+      <c r="D13">
+        <v>0.02540444536888842</v>
+      </c>
+      <c r="E13">
+        <v>0.1241939331431041</v>
+      </c>
+      <c r="F13">
+        <v>1.460456374354706</v>
+      </c>
+      <c r="G13">
+        <v>1.381350198271008</v>
+      </c>
+      <c r="H13">
+        <v>0.1309344113505233</v>
+      </c>
+      <c r="I13">
+        <v>0.04028000427360734</v>
+      </c>
+      <c r="J13">
+        <v>0.7534313713564131</v>
+      </c>
+      <c r="K13">
+        <v>1.20817771290892</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.1107120439258473</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.26155457991888</v>
+      </c>
+      <c r="Q13">
+        <v>4.457443998691303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.2632490379477161</v>
+      </c>
+      <c r="D14">
+        <v>0.02705321022954621</v>
+      </c>
+      <c r="E14">
+        <v>0.1015756656523799</v>
+      </c>
+      <c r="F14">
+        <v>1.377666108226052</v>
+      </c>
+      <c r="G14">
+        <v>1.291540814135487</v>
+      </c>
+      <c r="H14">
+        <v>0.178945709650975</v>
+      </c>
+      <c r="I14">
+        <v>0.03803920401208227</v>
+      </c>
+      <c r="J14">
+        <v>0.7097432954888063</v>
+      </c>
+      <c r="K14">
+        <v>1.119543618727604</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.08071384916930668</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.06092695796559</v>
+      </c>
+      <c r="Q14">
+        <v>4.1755640211573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.2560065495425619</v>
+      </c>
+      <c r="D15">
+        <v>0.02737089524877945</v>
+      </c>
+      <c r="E15">
+        <v>0.09646268571467864</v>
+      </c>
+      <c r="F15">
+        <v>1.348526946556888</v>
+      </c>
+      <c r="G15">
+        <v>1.260994725520817</v>
+      </c>
+      <c r="H15">
+        <v>0.190891808382176</v>
+      </c>
+      <c r="I15">
+        <v>0.03713798616303077</v>
+      </c>
+      <c r="J15">
+        <v>0.6951600602120322</v>
+      </c>
+      <c r="K15">
+        <v>1.091026389126782</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.07482779405541251</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.93801081193845</v>
+      </c>
+      <c r="Q15">
+        <v>4.080254112340697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.2484639454744837</v>
+      </c>
+      <c r="D16">
+        <v>0.02592575850730583</v>
+      </c>
+      <c r="E16">
+        <v>0.09454105488004672</v>
+      </c>
+      <c r="F16">
+        <v>1.272232140193665</v>
+      </c>
+      <c r="G16">
+        <v>1.188257109099197</v>
+      </c>
+      <c r="H16">
+        <v>0.1755993666390196</v>
+      </c>
+      <c r="I16">
+        <v>0.03313656458789715</v>
+      </c>
+      <c r="J16">
+        <v>0.6626746490421169</v>
+      </c>
+      <c r="K16">
+        <v>1.035682343710391</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.07408991687547228</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.23323027560713</v>
+      </c>
+      <c r="Q16">
+        <v>3.857877560912357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.2557550967375377</v>
+      </c>
+      <c r="D17">
+        <v>0.02392343832108068</v>
+      </c>
+      <c r="E17">
+        <v>0.1040039366436751</v>
+      </c>
+      <c r="F17">
+        <v>1.257394780363896</v>
+      </c>
+      <c r="G17">
+        <v>1.179688432857205</v>
+      </c>
+      <c r="H17">
+        <v>0.1365679019845771</v>
+      </c>
+      <c r="I17">
+        <v>0.0312734538552446</v>
+      </c>
+      <c r="J17">
+        <v>0.660774049192014</v>
+      </c>
+      <c r="K17">
+        <v>1.03962538950411</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.08736542556656346</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>10.80051555282938</v>
+      </c>
+      <c r="Q17">
+        <v>3.835618903241027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.279586981165366</v>
+      </c>
+      <c r="D18">
+        <v>0.02135418333999084</v>
+      </c>
+      <c r="E18">
+        <v>0.1291686761461364</v>
+      </c>
+      <c r="F18">
+        <v>1.295538170119698</v>
+      </c>
+      <c r="G18">
+        <v>1.227784546937357</v>
+      </c>
+      <c r="H18">
+        <v>0.08370429297813331</v>
+      </c>
+      <c r="I18">
+        <v>0.03082214210147249</v>
+      </c>
+      <c r="J18">
+        <v>0.6860873927596458</v>
+      </c>
+      <c r="K18">
+        <v>1.098367715870467</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.1241949222240635</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>10.55149949033279</v>
+      </c>
+      <c r="Q18">
+        <v>3.990497865929854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.3155883022967885</v>
+      </c>
+      <c r="D19">
+        <v>0.01894528403759566</v>
+      </c>
+      <c r="E19">
+        <v>0.1717478492653015</v>
+      </c>
+      <c r="F19">
+        <v>1.369701028591692</v>
+      </c>
+      <c r="G19">
+        <v>1.314116380248919</v>
+      </c>
+      <c r="H19">
+        <v>0.0397368489680332</v>
+      </c>
+      <c r="I19">
+        <v>0.03199158003771352</v>
+      </c>
+      <c r="J19">
+        <v>0.7293941423683066</v>
+      </c>
+      <c r="K19">
+        <v>1.192926977497223</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.192757639201055</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>10.46716465870099</v>
+      </c>
+      <c r="Q19">
+        <v>4.264145319782358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.3888611272493279</v>
+      </c>
+      <c r="D20">
+        <v>0.01670042831484153</v>
+      </c>
+      <c r="E20">
+        <v>0.2619313547511908</v>
+      </c>
+      <c r="F20">
+        <v>1.55165746817157</v>
+      </c>
+      <c r="G20">
+        <v>1.515274811502564</v>
+      </c>
+      <c r="H20">
+        <v>0.01866328435259934</v>
+      </c>
+      <c r="I20">
+        <v>0.03723053661777342</v>
+      </c>
+      <c r="J20">
+        <v>0.8268550042911329</v>
+      </c>
+      <c r="K20">
+        <v>1.396676378909035</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.3458777549395649</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>10.84659223998074</v>
+      </c>
+      <c r="Q20">
+        <v>4.894701344961675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.4273695802283441</v>
+      </c>
+      <c r="D21">
+        <v>0.01791774995386675</v>
+      </c>
+      <c r="E21">
+        <v>0.2956421395919975</v>
+      </c>
+      <c r="F21">
+        <v>1.744196598060356</v>
+      </c>
+      <c r="G21">
+        <v>1.70931331834916</v>
+      </c>
+      <c r="H21">
+        <v>0.0245909749137645</v>
+      </c>
+      <c r="I21">
+        <v>0.04626637421023183</v>
+      </c>
+      <c r="J21">
+        <v>0.9163060912272556</v>
+      </c>
+      <c r="K21">
+        <v>1.56309509847523</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.3968347862320485</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.11986155709377</v>
+      </c>
+      <c r="Q21">
+        <v>5.493599099348842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.4513947617164575</v>
+      </c>
+      <c r="D22">
+        <v>0.01877210840385501</v>
+      </c>
+      <c r="E22">
+        <v>0.31371220355161</v>
+      </c>
+      <c r="F22">
+        <v>1.867763793151525</v>
+      </c>
+      <c r="G22">
+        <v>1.833231855380433</v>
+      </c>
+      <c r="H22">
+        <v>0.0286875116517753</v>
+      </c>
+      <c r="I22">
+        <v>0.0522669105856135</v>
+      </c>
+      <c r="J22">
+        <v>0.9733858743649364</v>
+      </c>
+      <c r="K22">
+        <v>1.668759384006393</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.4218715382016001</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.95085643057945</v>
+      </c>
+      <c r="Q22">
+        <v>5.87597023182002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.4407748949988815</v>
+      </c>
+      <c r="D23">
+        <v>0.01826762229951839</v>
+      </c>
+      <c r="E23">
+        <v>0.3046282048369449</v>
+      </c>
+      <c r="F23">
+        <v>1.804751279896109</v>
+      </c>
+      <c r="G23">
+        <v>1.770513647744679</v>
+      </c>
+      <c r="H23">
+        <v>0.02650740698631338</v>
+      </c>
+      <c r="I23">
+        <v>0.04887102693499568</v>
+      </c>
+      <c r="J23">
+        <v>0.9446073570057933</v>
+      </c>
+      <c r="K23">
+        <v>1.616498146104192</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.4082212341104565</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.50744471934257</v>
+      </c>
+      <c r="Q23">
+        <v>5.6826704305725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.3967732037733782</v>
+      </c>
+      <c r="D24">
+        <v>0.01643870692963922</v>
+      </c>
+      <c r="E24">
+        <v>0.2693448853604323</v>
+      </c>
+      <c r="F24">
+        <v>1.563009919464193</v>
+      </c>
+      <c r="G24">
+        <v>1.528844556536626</v>
+      </c>
+      <c r="H24">
+        <v>0.01883493367261546</v>
+      </c>
+      <c r="I24">
+        <v>0.03705041007088372</v>
+      </c>
+      <c r="J24">
+        <v>0.8336486754952546</v>
+      </c>
+      <c r="K24">
+        <v>1.412650327379751</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.3572233834044454</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>10.82576172529139</v>
+      </c>
+      <c r="Q24">
+        <v>4.937684889103139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.3488745549771295</v>
+      </c>
+      <c r="D25">
+        <v>0.01446309481572605</v>
+      </c>
+      <c r="E25">
+        <v>0.2313053777437943</v>
+      </c>
+      <c r="F25">
+        <v>1.305600179256942</v>
+      </c>
+      <c r="G25">
+        <v>1.270977304008568</v>
+      </c>
+      <c r="H25">
+        <v>0.01176531723371579</v>
+      </c>
+      <c r="I25">
+        <v>0.02581561505995467</v>
+      </c>
+      <c r="J25">
+        <v>0.7155386056488737</v>
+      </c>
+      <c r="K25">
+        <v>1.194391749421385</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.3025989424064619</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>9.00683856119241</v>
+      </c>
+      <c r="Q25">
+        <v>4.143320442464415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3183626537725956</v>
+        <v>0.2217442004597885</v>
       </c>
       <c r="D2">
-        <v>0.01288900529991288</v>
+        <v>0.0162295397561536</v>
       </c>
       <c r="E2">
-        <v>0.2045602703770193</v>
+        <v>0.1770719764550073</v>
       </c>
       <c r="F2">
-        <v>1.125367544246288</v>
+        <v>0.9900191487172378</v>
       </c>
       <c r="G2">
-        <v>1.091089275150949</v>
+        <v>0.9158398609179415</v>
       </c>
       <c r="H2">
-        <v>0.007482153688631643</v>
+        <v>0.006178130692545969</v>
       </c>
       <c r="I2">
-        <v>0.0182263448599076</v>
+        <v>0.015409519149304</v>
       </c>
       <c r="J2">
-        <v>0.6337099497305587</v>
+        <v>0.6114321751249321</v>
       </c>
       <c r="K2">
-        <v>1.044501376700566</v>
+        <v>0.8587821700152105</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3988325422076286</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2694477697121158</v>
       </c>
       <c r="N2">
-        <v>0.2619161011958511</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>7.663121664604034</v>
+        <v>0.2748850087153158</v>
       </c>
       <c r="Q2">
-        <v>3.590303215626705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>7.663121664602784</v>
+      </c>
+      <c r="S2">
+        <v>3.101520045026348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2942741269802411</v>
+        <v>0.2094004732399597</v>
       </c>
       <c r="D3">
-        <v>0.01187745907869875</v>
+        <v>0.01460041970449488</v>
       </c>
       <c r="E3">
-        <v>0.1855697559166281</v>
+        <v>0.1620735644547793</v>
       </c>
       <c r="F3">
-        <v>1.000058898565129</v>
+        <v>0.8855765812519678</v>
       </c>
       <c r="G3">
-        <v>0.9651148042441662</v>
+        <v>0.813268706164493</v>
       </c>
       <c r="H3">
-        <v>0.005001832812527085</v>
+        <v>0.004165098773621922</v>
       </c>
       <c r="I3">
-        <v>0.01381878356161481</v>
+        <v>0.01194259852180224</v>
       </c>
       <c r="J3">
-        <v>0.5763689446032316</v>
+        <v>0.5637107742532095</v>
       </c>
       <c r="K3">
-        <v>0.9374871727510055</v>
+        <v>0.7791693170307354</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3817650628785358</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2269187667826245</v>
       </c>
       <c r="N3">
-        <v>0.23477650035273</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0.2463638860185711</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>6.74968365211538</v>
       </c>
-      <c r="Q3">
-        <v>3.202938143828106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>2.788907579094939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2791973669829702</v>
+        <v>0.2015512303643021</v>
       </c>
       <c r="D4">
-        <v>0.01125247681084574</v>
+        <v>0.01360633895272834</v>
       </c>
       <c r="E4">
-        <v>0.1738298841185291</v>
+        <v>0.1527620663663676</v>
       </c>
       <c r="F4">
-        <v>0.9233866052597222</v>
+        <v>0.8214848412798545</v>
       </c>
       <c r="G4">
-        <v>0.8878946360722608</v>
+        <v>0.7502975586413498</v>
       </c>
       <c r="H4">
-        <v>0.003680680912360401</v>
+        <v>0.003087127130260159</v>
       </c>
       <c r="I4">
-        <v>0.01135473323123959</v>
+        <v>0.00999274610323786</v>
       </c>
       <c r="J4">
-        <v>0.5412914592922391</v>
+        <v>0.5342590654286283</v>
       </c>
       <c r="K4">
-        <v>0.8717035441413543</v>
+        <v>0.7299753960254449</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3707685264757359</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2016047135876562</v>
       </c>
       <c r="N4">
-        <v>0.218129355873188</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0.2288804483099085</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>6.187481969423061</v>
       </c>
-      <c r="Q4">
-        <v>2.965628735532931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>2.596714646205612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2724388596571146</v>
+        <v>0.1979184748454159</v>
       </c>
       <c r="D5">
-        <v>0.01100754109839031</v>
+        <v>0.01321969110937005</v>
       </c>
       <c r="E5">
-        <v>0.1688865580219421</v>
+        <v>0.1488178212032842</v>
       </c>
       <c r="F5">
-        <v>0.8914643847191712</v>
+        <v>0.794695929872077</v>
       </c>
       <c r="G5">
-        <v>0.8556016294817255</v>
+        <v>0.7238659611934821</v>
       </c>
       <c r="H5">
-        <v>0.003185726830488234</v>
+        <v>0.002681773835518153</v>
       </c>
       <c r="I5">
-        <v>0.01044780513337651</v>
+        <v>0.009295572564666621</v>
       </c>
       <c r="J5">
-        <v>0.5266032494919699</v>
+        <v>0.5218240380550299</v>
       </c>
       <c r="K5">
-        <v>0.8438523573125707</v>
+        <v>0.7089496139309261</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.365778150570172</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1911867200399442</v>
       </c>
       <c r="N5">
-        <v>0.2114130240487171</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0.2218294298066894</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>5.958052239810286</v>
       </c>
-      <c r="Q5">
-        <v>2.866346565555034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>2.515881819024656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2706511173395398</v>
+        <v>0.1968662949402784</v>
       </c>
       <c r="D6">
-        <v>0.01098023591155162</v>
+        <v>0.01317671501929674</v>
       </c>
       <c r="E6">
-        <v>0.1678958895927813</v>
+        <v>0.1480106727331467</v>
       </c>
       <c r="F6">
-        <v>0.885270219833231</v>
+        <v>0.7894254049014506</v>
       </c>
       <c r="G6">
-        <v>0.8492051223435766</v>
+        <v>0.71854303707822</v>
       </c>
       <c r="H6">
-        <v>0.003101631445945441</v>
+        <v>0.002612735633281016</v>
       </c>
       <c r="I6">
-        <v>0.01035797973438779</v>
+        <v>0.009259329894318213</v>
       </c>
       <c r="J6">
-        <v>0.5236501806774214</v>
+        <v>0.5192747815315641</v>
       </c>
       <c r="K6">
-        <v>0.8379813108833787</v>
+        <v>0.7043561764790169</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3644791816946125</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1891004138001691</v>
       </c>
       <c r="N6">
-        <v>0.2103789679137975</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0.2207432320199274</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>5.919936152110608</v>
       </c>
-      <c r="Q6">
-        <v>2.846591677046604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>2.499482902292613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2772946796460047</v>
+        <v>0.200399338352355</v>
       </c>
       <c r="D7">
-        <v>0.0112860478452248</v>
+        <v>0.01369365481526863</v>
       </c>
       <c r="E7">
-        <v>0.1733020802463372</v>
+        <v>0.1523251389888856</v>
       </c>
       <c r="F7">
-        <v>0.9204997524710024</v>
+        <v>0.8175228729017903</v>
       </c>
       <c r="G7">
-        <v>0.8846223757322775</v>
+        <v>0.7524496373356158</v>
       </c>
       <c r="H7">
-        <v>0.00365994697170946</v>
+        <v>0.003065787243100471</v>
       </c>
       <c r="I7">
-        <v>0.01148332119467632</v>
+        <v>0.01016578923243561</v>
       </c>
       <c r="J7">
-        <v>0.5396813900051853</v>
+        <v>0.5250453087271865</v>
       </c>
       <c r="K7">
-        <v>0.867918570170545</v>
+        <v>0.7256347018641804</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3690155592895792</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2000777123686177</v>
       </c>
       <c r="N7">
-        <v>0.2182613402419307</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0.2289627956755353</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>6.184389112219776</v>
       </c>
-      <c r="Q7">
-        <v>2.955319849603228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>2.582611184082651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3076988310178166</v>
+        <v>0.2163239180085839</v>
       </c>
       <c r="D8">
-        <v>0.01259076287192684</v>
+        <v>0.0158635027469618</v>
       </c>
       <c r="E8">
-        <v>0.1974133489568182</v>
+        <v>0.1714715313505693</v>
       </c>
       <c r="F8">
-        <v>1.078815446284025</v>
+        <v>0.9464906598572469</v>
       </c>
       <c r="G8">
-        <v>1.043827452016899</v>
+        <v>0.8940397113043161</v>
       </c>
       <c r="H8">
-        <v>0.006559398196045341</v>
+        <v>0.005413102718549223</v>
       </c>
       <c r="I8">
-        <v>0.01680793017375759</v>
+        <v>0.01436004854686423</v>
       </c>
       <c r="J8">
-        <v>0.6120252402154875</v>
+        <v>0.5677042156060139</v>
       </c>
       <c r="K8">
-        <v>1.003061837725269</v>
+        <v>0.8238932387214675</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3900737430154493</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2519184756447927</v>
       </c>
       <c r="N8">
-        <v>0.2528513455951753</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0.2651758297685092</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>7.348453399592813</v>
       </c>
-      <c r="Q8">
-        <v>3.444625473562894</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>2.966668265267799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3683839731748435</v>
+        <v>0.2472017591846196</v>
       </c>
       <c r="D9">
-        <v>0.01505911269755345</v>
+        <v>0.01994824631294634</v>
       </c>
       <c r="E9">
-        <v>0.244968058238257</v>
+        <v>0.208883265517489</v>
       </c>
       <c r="F9">
-        <v>1.3964515441956</v>
+        <v>1.209044202709237</v>
       </c>
       <c r="G9">
-        <v>1.362753526315629</v>
+        <v>1.158346773206233</v>
       </c>
       <c r="H9">
-        <v>0.01404489094575767</v>
+        <v>0.01143465206861299</v>
       </c>
       <c r="I9">
-        <v>0.02920905939321639</v>
+        <v>0.02392005262199604</v>
       </c>
       <c r="J9">
-        <v>0.7577301696953214</v>
+        <v>0.6802630354610244</v>
       </c>
       <c r="K9">
-        <v>1.273999237668022</v>
+        <v>1.023506292786749</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4310052442992074</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3633167300825448</v>
       </c>
       <c r="N9">
-        <v>0.3205488747439205</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0.3363057003921739</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>9.620230281550789</v>
       </c>
-      <c r="Q9">
-        <v>4.426360819246327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>3.751258976702445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4041383091524722</v>
+        <v>0.265129698052661</v>
       </c>
       <c r="D10">
-        <v>0.01710108573822389</v>
+        <v>0.02358225570715433</v>
       </c>
       <c r="E10">
-        <v>0.27042560514775</v>
+        <v>0.2280643906968862</v>
       </c>
       <c r="F10">
-        <v>1.618587444140104</v>
+        <v>1.38343895353951</v>
       </c>
       <c r="G10">
-        <v>1.58293423328692</v>
+        <v>1.370917803832697</v>
       </c>
       <c r="H10">
-        <v>0.02059724990717537</v>
+        <v>0.01663884573105756</v>
       </c>
       <c r="I10">
-        <v>0.03970343938652565</v>
+        <v>0.03191063297790908</v>
       </c>
       <c r="J10">
-        <v>0.8580965859141259</v>
+        <v>0.7118252157313236</v>
       </c>
       <c r="K10">
-        <v>1.456045802703983</v>
+        <v>1.149114441486176</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4515033473996226</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4413199168746473</v>
       </c>
       <c r="N10">
-        <v>0.3548741243476741</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0.372175103794703</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>11.28258838837513</v>
       </c>
-      <c r="Q10">
-        <v>5.103637097744354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>4.258521662766384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3624432547605778</v>
+        <v>0.2431066012881828</v>
       </c>
       <c r="D11">
-        <v>0.0203055996794177</v>
+        <v>0.02897205375661471</v>
       </c>
       <c r="E11">
-        <v>0.2099006980049296</v>
+        <v>0.1746940263338814</v>
       </c>
       <c r="F11">
-        <v>1.606942388332598</v>
+        <v>1.355853192201678</v>
       </c>
       <c r="G11">
-        <v>1.553108415348163</v>
+        <v>1.411840515063346</v>
       </c>
       <c r="H11">
-        <v>0.03896848336980696</v>
+        <v>0.03482631063729258</v>
       </c>
       <c r="I11">
-        <v>0.04244426896787168</v>
+        <v>0.03408037262024788</v>
       </c>
       <c r="J11">
-        <v>0.8397236089594173</v>
+        <v>0.6062357148147726</v>
       </c>
       <c r="K11">
-        <v>1.398149787708292</v>
+        <v>1.086098004794351</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4181475628042151</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.428805273823329</v>
       </c>
       <c r="N11">
-        <v>0.247740835801217</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0.259520928981587</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>12.03742316731751</v>
       </c>
-      <c r="Q11">
-        <v>5.002125722401786</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>4.106261617640769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3260926387365259</v>
+        <v>0.2249049925756808</v>
       </c>
       <c r="D12">
-        <v>0.02297525288453883</v>
+        <v>0.03299074566672289</v>
       </c>
       <c r="E12">
-        <v>0.1633048264525065</v>
+        <v>0.1349302876629324</v>
       </c>
       <c r="F12">
-        <v>1.55327417164726</v>
+        <v>1.303886250914246</v>
       </c>
       <c r="G12">
-        <v>1.485710124410446</v>
+        <v>1.3851307104309</v>
       </c>
       <c r="H12">
-        <v>0.07675228800790279</v>
+        <v>0.072707358179116</v>
       </c>
       <c r="I12">
-        <v>0.04236215009883981</v>
+        <v>0.03399910029492847</v>
       </c>
       <c r="J12">
-        <v>0.8049443712884283</v>
+        <v>0.5422574793460484</v>
       </c>
       <c r="K12">
-        <v>1.316935755808686</v>
+        <v>1.01600891579325</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3896272351102681</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.4049887466622124</v>
       </c>
       <c r="N12">
-        <v>0.1699087262189423</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0.1770509776369025</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>12.32306348037548</v>
       </c>
-      <c r="Q12">
-        <v>4.786515648945851</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>3.9019187641332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2890990624626824</v>
+        <v>0.206702812993754</v>
       </c>
       <c r="D13">
-        <v>0.02540444536888842</v>
+        <v>0.03596666643100477</v>
       </c>
       <c r="E13">
-        <v>0.1241939331431041</v>
+        <v>0.1027742960057143</v>
       </c>
       <c r="F13">
-        <v>1.460456374354706</v>
+        <v>1.22978319192994</v>
       </c>
       <c r="G13">
-        <v>1.381350198271008</v>
+        <v>1.287963091229983</v>
       </c>
       <c r="H13">
-        <v>0.1309344113505233</v>
+        <v>0.1272259453676412</v>
       </c>
       <c r="I13">
-        <v>0.04028000427360734</v>
+        <v>0.03248257930661591</v>
       </c>
       <c r="J13">
-        <v>0.7534313713564131</v>
+        <v>0.5152503028957938</v>
       </c>
       <c r="K13">
-        <v>1.20817771290892</v>
+        <v>0.9340639902438141</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3617398034894848</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3705890422197555</v>
       </c>
       <c r="N13">
-        <v>0.1107120439258473</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0.113662108980698</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>12.26155457991888</v>
       </c>
-      <c r="Q13">
-        <v>4.457443998691303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>3.643989617306659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2632490379477161</v>
+        <v>0.194326980802817</v>
       </c>
       <c r="D14">
-        <v>0.02705321022954621</v>
+        <v>0.03758371336080302</v>
       </c>
       <c r="E14">
-        <v>0.1015756656523799</v>
+        <v>0.08501719068562608</v>
       </c>
       <c r="F14">
-        <v>1.377666108226052</v>
+        <v>1.167232336209977</v>
       </c>
       <c r="G14">
-        <v>1.291540814135487</v>
+        <v>1.189843453204645</v>
       </c>
       <c r="H14">
-        <v>0.178945709650975</v>
+        <v>0.1755617957832953</v>
       </c>
       <c r="I14">
-        <v>0.03803920401208227</v>
+        <v>0.03088471551066974</v>
       </c>
       <c r="J14">
-        <v>0.7097432954888063</v>
+        <v>0.5104151613729613</v>
       </c>
       <c r="K14">
-        <v>1.119543618727604</v>
+        <v>0.8706651482081682</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3420178747968734</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.34171920331422</v>
       </c>
       <c r="N14">
-        <v>0.08071384916930668</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0.08092663355413876</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>12.06092695796559</v>
       </c>
-      <c r="Q14">
-        <v>4.1755640211573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>3.436756120885434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2560065495425619</v>
+        <v>0.1908251214658847</v>
       </c>
       <c r="D15">
-        <v>0.02737089524877945</v>
+        <v>0.03772389300529255</v>
       </c>
       <c r="E15">
-        <v>0.09646268571467864</v>
+        <v>0.08116896234526116</v>
       </c>
       <c r="F15">
-        <v>1.348526946556888</v>
+        <v>1.14625028735999</v>
       </c>
       <c r="G15">
-        <v>1.260994725520817</v>
+        <v>1.151986622500971</v>
       </c>
       <c r="H15">
-        <v>0.190891808382176</v>
+        <v>0.1876442095289264</v>
       </c>
       <c r="I15">
-        <v>0.03713798616303077</v>
+        <v>0.03028124501640672</v>
       </c>
       <c r="J15">
-        <v>0.6951600602120322</v>
+        <v>0.5147754506657662</v>
       </c>
       <c r="K15">
-        <v>1.091026389126782</v>
+        <v>0.8513548794590662</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3367342132630853</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3320348837181157</v>
       </c>
       <c r="N15">
-        <v>0.07482779405541251</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.93801081193845</v>
+        <v>0.07443863731447919</v>
       </c>
       <c r="Q15">
-        <v>4.080254112340697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.93801081193658</v>
+      </c>
+      <c r="S15">
+        <v>3.370920315597402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2484639454744837</v>
+        <v>0.1860211717995348</v>
       </c>
       <c r="D16">
-        <v>0.02592575850730583</v>
+        <v>0.03480052024835345</v>
       </c>
       <c r="E16">
-        <v>0.09454105488004672</v>
+        <v>0.08003909795369601</v>
       </c>
       <c r="F16">
-        <v>1.272232140193665</v>
+        <v>1.097613312220545</v>
       </c>
       <c r="G16">
-        <v>1.188257109099197</v>
+        <v>1.036949600941142</v>
       </c>
       <c r="H16">
-        <v>0.1755993666390196</v>
+        <v>0.1729094502887847</v>
       </c>
       <c r="I16">
-        <v>0.03313656458789715</v>
+        <v>0.02738513828135503</v>
       </c>
       <c r="J16">
-        <v>0.6626746490421169</v>
+        <v>0.563332662398949</v>
       </c>
       <c r="K16">
-        <v>1.035682343710391</v>
+        <v>0.8221912301061494</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3350564217744392</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3097654368842626</v>
       </c>
       <c r="N16">
-        <v>0.07408991687547228</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.23323027560713</v>
+        <v>0.07423217645306579</v>
       </c>
       <c r="Q16">
-        <v>3.857877560912357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.23323027560724</v>
+      </c>
+      <c r="S16">
+        <v>3.245198027700866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2557550967375377</v>
+        <v>0.1884921866262417</v>
       </c>
       <c r="D17">
-        <v>0.02392343832108068</v>
+        <v>0.03186739775869896</v>
       </c>
       <c r="E17">
-        <v>0.1040039366436751</v>
+        <v>0.08760578617025594</v>
       </c>
       <c r="F17">
-        <v>1.257394780363896</v>
+        <v>1.091570397447384</v>
       </c>
       <c r="G17">
-        <v>1.179688432857205</v>
+        <v>1.007319150092158</v>
       </c>
       <c r="H17">
-        <v>0.1365679019845771</v>
+        <v>0.1341234094041823</v>
       </c>
       <c r="I17">
-        <v>0.0312734538552446</v>
+        <v>0.02601454209781195</v>
       </c>
       <c r="J17">
-        <v>0.660774049192014</v>
+        <v>0.5951690247893282</v>
       </c>
       <c r="K17">
-        <v>1.03962538950411</v>
+        <v>0.8319092647279049</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.344000097695087</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3071572008971017</v>
       </c>
       <c r="N17">
-        <v>0.08736542556656346</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0.08935069465912449</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>10.80051555282938</v>
       </c>
-      <c r="Q17">
-        <v>3.835618903241027</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>3.251920182939614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.279586981165366</v>
+        <v>0.1994595403393689</v>
       </c>
       <c r="D18">
-        <v>0.02135418333999084</v>
+        <v>0.02853558174499682</v>
       </c>
       <c r="E18">
-        <v>0.1291686761461364</v>
+        <v>0.1081297199170148</v>
       </c>
       <c r="F18">
-        <v>1.295538170119698</v>
+        <v>1.126188386412366</v>
       </c>
       <c r="G18">
-        <v>1.227784546937357</v>
+        <v>1.037732830941906</v>
       </c>
       <c r="H18">
-        <v>0.08370429297813331</v>
+        <v>0.08127011284737762</v>
       </c>
       <c r="I18">
-        <v>0.03082214210147249</v>
+        <v>0.02556932216080643</v>
       </c>
       <c r="J18">
-        <v>0.6860873927596458</v>
+        <v>0.6307960531229497</v>
       </c>
       <c r="K18">
-        <v>1.098367715870467</v>
+        <v>0.881350268533069</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3652068078865867</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3228541153934117</v>
       </c>
       <c r="N18">
-        <v>0.1241949222240635</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>10.55149949033279</v>
+        <v>0.1294884281271962</v>
       </c>
       <c r="Q18">
-        <v>3.990497865929854</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>10.55149949033284</v>
+      </c>
+      <c r="S18">
+        <v>3.390897368319031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3155883022967885</v>
+        <v>0.217445378873883</v>
       </c>
       <c r="D19">
-        <v>0.01894528403759566</v>
+        <v>0.02547566764902598</v>
       </c>
       <c r="E19">
-        <v>0.1717478492653015</v>
+        <v>0.1439589742446685</v>
       </c>
       <c r="F19">
-        <v>1.369701028591692</v>
+        <v>1.188586723913403</v>
       </c>
       <c r="G19">
-        <v>1.314116380248919</v>
+        <v>1.106127370465543</v>
       </c>
       <c r="H19">
-        <v>0.0397368489680332</v>
+        <v>0.03709310512823549</v>
       </c>
       <c r="I19">
-        <v>0.03199158003771352</v>
+        <v>0.02647465033804153</v>
       </c>
       <c r="J19">
-        <v>0.7293941423683066</v>
+        <v>0.6708452872347834</v>
       </c>
       <c r="K19">
-        <v>1.192926977497223</v>
+        <v>0.9563610348191247</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3937133635073877</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3510280968082355</v>
       </c>
       <c r="N19">
-        <v>0.192757639201055</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0.2024884885834979</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>10.46716465870099</v>
       </c>
-      <c r="Q19">
-        <v>4.264145319782358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>3.618645746926973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3888611272493279</v>
+        <v>0.2563998219760322</v>
       </c>
       <c r="D20">
-        <v>0.01670042831484153</v>
+        <v>0.02270238160547322</v>
       </c>
       <c r="E20">
-        <v>0.2619313547511908</v>
+        <v>0.2213433596261716</v>
       </c>
       <c r="F20">
-        <v>1.55165746817157</v>
+        <v>1.334984047333364</v>
       </c>
       <c r="G20">
-        <v>1.515274811502564</v>
+        <v>1.28745185229613</v>
       </c>
       <c r="H20">
-        <v>0.01866328435259934</v>
+        <v>0.01512756281175109</v>
       </c>
       <c r="I20">
-        <v>0.03723053661777342</v>
+        <v>0.03038778338658155</v>
       </c>
       <c r="J20">
-        <v>0.8268550042911329</v>
+        <v>0.7264720355098575</v>
       </c>
       <c r="K20">
-        <v>1.396676378909035</v>
+        <v>1.110167217470035</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4440500809104364</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4182086746290494</v>
       </c>
       <c r="N20">
-        <v>0.3458777549395649</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0.362972098558771</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>10.84659223998074</v>
       </c>
-      <c r="Q20">
-        <v>4.894701344961675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>4.115973454841651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4273695802283441</v>
+        <v>0.278374011581235</v>
       </c>
       <c r="D21">
-        <v>0.01791774995386675</v>
+        <v>0.02575243860522036</v>
       </c>
       <c r="E21">
-        <v>0.2956421395919975</v>
+        <v>0.2490101751405476</v>
       </c>
       <c r="F21">
-        <v>1.744196598060356</v>
+        <v>1.460506278405191</v>
       </c>
       <c r="G21">
-        <v>1.70931331834916</v>
+        <v>1.574156126485462</v>
       </c>
       <c r="H21">
-        <v>0.0245909749137645</v>
+        <v>0.0196496835253952</v>
       </c>
       <c r="I21">
-        <v>0.04626637421023183</v>
+        <v>0.03689896660182601</v>
       </c>
       <c r="J21">
-        <v>0.9163060912272556</v>
+        <v>0.6242523934804183</v>
       </c>
       <c r="K21">
-        <v>1.56309509847523</v>
+        <v>1.206750944819575</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4594922823974699</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4793754452831678</v>
       </c>
       <c r="N21">
-        <v>0.3968347862320485</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0.415134295959561</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>12.11986155709377</v>
       </c>
-      <c r="Q21">
-        <v>5.493599099348842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>4.474229057147681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4513947617164575</v>
+        <v>0.2925480634149977</v>
       </c>
       <c r="D22">
-        <v>0.01877210840385501</v>
+        <v>0.02793522276109073</v>
       </c>
       <c r="E22">
-        <v>0.31371220355161</v>
+        <v>0.2636800115398046</v>
       </c>
       <c r="F22">
-        <v>1.867763793151525</v>
+        <v>1.538055346234714</v>
       </c>
       <c r="G22">
-        <v>1.833231855380433</v>
+        <v>1.773053451859425</v>
       </c>
       <c r="H22">
-        <v>0.0286875116517753</v>
+        <v>0.02275679328595492</v>
       </c>
       <c r="I22">
-        <v>0.0522669105856135</v>
+        <v>0.04105562913654648</v>
       </c>
       <c r="J22">
-        <v>0.9733858743649364</v>
+        <v>0.5539529849872338</v>
       </c>
       <c r="K22">
-        <v>1.668759384006393</v>
+        <v>1.265466540867138</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4677865681438362</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.5182852703717842</v>
       </c>
       <c r="N22">
-        <v>0.4218715382016001</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0.440502448187388</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>12.95085643057945</v>
       </c>
-      <c r="Q22">
-        <v>5.87597023182002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>4.691677953968394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4407748949988815</v>
+        <v>0.2860300594330596</v>
       </c>
       <c r="D23">
-        <v>0.01826762229951839</v>
+        <v>0.02656967735854465</v>
       </c>
       <c r="E23">
-        <v>0.3046282048369449</v>
+        <v>0.2562477848805287</v>
       </c>
       <c r="F23">
-        <v>1.804751279896109</v>
+        <v>1.503020350393797</v>
       </c>
       <c r="G23">
-        <v>1.770513647744679</v>
+        <v>1.654688882372454</v>
       </c>
       <c r="H23">
-        <v>0.02650740698631338</v>
+        <v>0.0211246912059222</v>
       </c>
       <c r="I23">
-        <v>0.04887102693499568</v>
+        <v>0.03860810858843156</v>
       </c>
       <c r="J23">
-        <v>0.9446073570057933</v>
+        <v>0.6093788131952778</v>
       </c>
       <c r="K23">
-        <v>1.616498146104192</v>
+        <v>1.240540807411534</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.465622109334717</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.5000693354402515</v>
       </c>
       <c r="N23">
-        <v>0.4082212341104565</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0.4268032510680371</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>12.50744471934257</v>
       </c>
-      <c r="Q23">
-        <v>5.6826704305725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>4.598505127414853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3967732037733782</v>
+        <v>0.2609837660166079</v>
       </c>
       <c r="D24">
-        <v>0.01643870692963922</v>
+        <v>0.02229207630564289</v>
       </c>
       <c r="E24">
-        <v>0.2693448853604323</v>
+        <v>0.2278615855609161</v>
       </c>
       <c r="F24">
-        <v>1.563009919464193</v>
+        <v>1.344992904404393</v>
       </c>
       <c r="G24">
-        <v>1.528844556536626</v>
+        <v>1.298007126477387</v>
       </c>
       <c r="H24">
-        <v>0.01883493367261546</v>
+        <v>0.01525711114569628</v>
       </c>
       <c r="I24">
-        <v>0.03705041007088372</v>
+        <v>0.0300559357225163</v>
       </c>
       <c r="J24">
-        <v>0.8336486754952546</v>
+        <v>0.7337517914230602</v>
       </c>
       <c r="K24">
-        <v>1.412650327379751</v>
+        <v>1.123469543059343</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.449179020934146</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4231338506721514</v>
       </c>
       <c r="N24">
-        <v>0.3572233834044454</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0.3748079117601293</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>10.82576172529139</v>
       </c>
-      <c r="Q24">
-        <v>4.937684889103139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>4.153447031481562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3488745549771295</v>
+        <v>0.2367929401548707</v>
       </c>
       <c r="D25">
-        <v>0.01446309481572605</v>
+        <v>0.01889693830627337</v>
       </c>
       <c r="E25">
-        <v>0.2313053777437943</v>
+        <v>0.1980499859362617</v>
       </c>
       <c r="F25">
-        <v>1.305600179256942</v>
+        <v>1.135724189764602</v>
       </c>
       <c r="G25">
-        <v>1.270977304008568</v>
+        <v>1.074643680532148</v>
       </c>
       <c r="H25">
-        <v>0.01176531723371579</v>
+        <v>0.009616069277592933</v>
       </c>
       <c r="I25">
-        <v>0.02581561505995467</v>
+        <v>0.02149035971871527</v>
       </c>
       <c r="J25">
-        <v>0.7155386056488737</v>
+        <v>0.6585292283480442</v>
       </c>
       <c r="K25">
-        <v>1.194391749421385</v>
+        <v>0.9658004598492198</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4188841505125467</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3309733271328099</v>
       </c>
       <c r="N25">
-        <v>0.3025989424064619</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0.3175188414319621</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>9.00683856119241</v>
       </c>
-      <c r="Q25">
-        <v>4.143320442464415</v>
+      <c r="S25">
+        <v>3.531178374231843</v>
       </c>
     </row>
   </sheetData>
